--- a/biology/Zoologie/Arrudatitan/Arrudatitan.xlsx
+++ b/biology/Zoologie/Arrudatitan/Arrudatitan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrudatitan maximus
-Arrudatitan (qui signifie « le géant d'Arruda ») est un genre fossile de dinosaures sauropodes titanosaures connu de la formation d'Adamantina du Crétacé supérieur (Campanien - Maastrichtien) du Brésil. L'espèce type, Arrudatitan maximus, a été nommée et décrite en 2011 comme une espèce d’Aeolosaurus[1], mais a été dissocié de son propre genre, en 2021, par Julian C. G. Silva Junior (d) et al.[2] Il était relativement gracile pour un titanosaure.
+Arrudatitan (qui signifie « le géant d'Arruda ») est un genre fossile de dinosaures sauropodes titanosaures connu de la formation d'Adamantina du Crétacé supérieur (Campanien - Maastrichtien) du Brésil. L'espèce type, Arrudatitan maximus, a été nommée et décrite en 2011 comme une espèce d’Aeolosaurus, mais a été dissocié de son propre genre, en 2021, par Julian C. G. Silva Junior (d) et al. Il était relativement gracile pour un titanosaure.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Découverte et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype, MPMA 12-0001-97 (qui comprend deux cervicales postérieures partielles, des fragments de plusieurs dorsales, des parties de neuf caudales, sept côtes cervicales partielles, douze côtes dorsales partielles, huit chevrons, un fragment d'omoplate et des os du bras, le fémur gauche et une partie du fémur droit,, ischion gauche et des fragments ; avec d'autres spécimens connus, comme la vertèbre caudale moyenne isolée MPP 248[1]), a été découvert en 1997 par Ademir Frare et son neveu de 12 ans, Luiz Augusto dos Santos Frare, dans un champ à Cândido Rodrigues. Ils ont informé le paléontologue Antonio Celso de Arruda Campos (d) et l'holotype a été collecté entre 1997 et 1998 par le personnel du Museu de Paleontologia de Monte Alto et il a été mentionné pour la première fois dans la littérature scientifique par Rodrigo Miloni Santucci (d) et Reinaldo José Bertini (2001)[3]. Ils ont noté que des dents de crocodylomorphes et de théropodes ont été trouvées près de l'holotype, mais qu'aucune marque de morsure n'était présente[3]. En 2009, Fernando Novas a brièvement mentionné l'holotype, en notant sa taille[4].
-MPMA 12-0001-97 a été initialement attribué à Aeolosaurus en 2011, lorsque l'espèce Aeolosaurus maximus a été créée par Santucci &amp; De Arruda-Campos[1]. Dès Martinelli et al. (2011), publié peu de temps avant la description d’Aeolosaurus maximus, la vertèbre caudale de l'holotype d’Aeolosaurus maximus était considérée comme un Aeolosaurini indéterminée distincte d’Aeolosaurus[5] ; Bandeira et al. (2016)[6] se désignant l'espèce comme « A. » maximus tout au long de leur article décrivant le sauropode titanosaurien Austroposeidon magnificus en raison du fait qu’Aeolosaurus maximus est suffisamment différent d’Aeolosaurus, mais n'a pas encore été placé dans un genre différent ; et des analyses ultérieures, telles que Silva et al. (2019)[7] et Hechenleitner et al. (2020)[8], ont découvert qu’Aeolosaurus maximus n'appartenait pas au genre Aeolosaurus et donc le nouveau genre Arrudatitan a été créé en 2021 par Silva et al.[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype, MPMA 12-0001-97 (qui comprend deux cervicales postérieures partielles, des fragments de plusieurs dorsales, des parties de neuf caudales, sept côtes cervicales partielles, douze côtes dorsales partielles, huit chevrons, un fragment d'omoplate et des os du bras, le fémur gauche et une partie du fémur droit ischion gauche et des fragments ; avec d'autres spécimens connus, comme la vertèbre caudale moyenne isolée MPP 248), a été découvert en 1997 par Ademir Frare et son neveu de 12 ans, Luiz Augusto dos Santos Frare, dans un champ à Cândido Rodrigues. Ils ont informé le paléontologue Antonio Celso de Arruda Campos (d) et l'holotype a été collecté entre 1997 et 1998 par le personnel du Museu de Paleontologia de Monte Alto et il a été mentionné pour la première fois dans la littérature scientifique par Rodrigo Miloni Santucci (d) et Reinaldo José Bertini (2001). Ils ont noté que des dents de crocodylomorphes et de théropodes ont été trouvées près de l'holotype, mais qu'aucune marque de morsure n'était présente. En 2009, Fernando Novas a brièvement mentionné l'holotype, en notant sa taille.
+MPMA 12-0001-97 a été initialement attribué à Aeolosaurus en 2011, lorsque l'espèce Aeolosaurus maximus a été créée par Santucci &amp; De Arruda-Campos. Dès Martinelli et al. (2011), publié peu de temps avant la description d’Aeolosaurus maximus, la vertèbre caudale de l'holotype d’Aeolosaurus maximus était considérée comme un Aeolosaurini indéterminée distincte d’Aeolosaurus ; Bandeira et al. (2016) se désignant l'espèce comme « A. » maximus tout au long de leur article décrivant le sauropode titanosaurien Austroposeidon magnificus en raison du fait qu’Aeolosaurus maximus est suffisamment différent d’Aeolosaurus, mais n'a pas encore été placé dans un genre différent ; et des analyses ultérieures, telles que Silva et al. (2019) et Hechenleitner et al. (2020), ont découvert qu’Aeolosaurus maximus n'appartenait pas au genre Aeolosaurus et donc le nouveau genre Arrudatitan a été créé en 2021 par Silva et al.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la taille de l'holotype, Arrudatitan pouvait atteindre 15 m à l'âge adulte[1],[4]. La longueur du fémur d’Arrudatitan est de 1,55 m.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la taille de l'holotype, Arrudatitan pouvait atteindre 15 m à l'âge adulte,. La longueur du fémur d’Arrudatitan est de 1,55 m.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aeolosaurus maximus a été nommée par Santucci et De Arruda-Campos en 2011 pour les restes de titanosaures récupérés dans la Formation d'Adamantina au Brésil. Cependant, des analyses cladistiques ultérieures, telles que celles de Silva et al. en 2019[7] et Hechenleitner et al. en 2020[8], ont considéré A. maximus comme étant en dehors d’Aeolosaurus, la première analyse concluant qu'il était le frère des Rinconsauria et la seconde le trouvant étroitement lié à un clade composé de Punatitan et des deux autres espèces d’Aeolosaurus. À la lumière de cela, Silva et al. l'ont transféré au nouveau genre Arrudatitan, nommé en l'honneur du paléontologue brésilien Antonio Celso de Arruda Campos.
-Un cladogramme de l'analyse phylogénétique réalisée par Silva et al., en 2021, est illustré ci-dessous[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aeolosaurus maximus a été nommée par Santucci et De Arruda-Campos en 2011 pour les restes de titanosaures récupérés dans la Formation d'Adamantina au Brésil. Cependant, des analyses cladistiques ultérieures, telles que celles de Silva et al. en 2019 et Hechenleitner et al. en 2020, ont considéré A. maximus comme étant en dehors d’Aeolosaurus, la première analyse concluant qu'il était le frère des Rinconsauria et la seconde le trouvant étroitement lié à un clade composé de Punatitan et des deux autres espèces d’Aeolosaurus. À la lumière de cela, Silva et al. l'ont transféré au nouveau genre Arrudatitan, nommé en l'honneur du paléontologue brésilien Antonio Celso de Arruda Campos.
+Un cladogramme de l'analyse phylogénétique réalisée par Silva et al., en 2021, est illustré ci-dessous :
 </t>
         </is>
       </c>
